--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744692.7783424535</v>
+        <v>-707167.6075552386</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17416836.60718618</v>
+        <v>16765245.1615573</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>492028.9342484445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9575986.5958813</v>
+        <v>9604469.522977257</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>41.04912457156745</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>156.1440859109041</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>241.3165783470778</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>41.45893178857173</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>116.8082572343016</v>
+        <v>416.0439047691522</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>19.8008763003435</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.78580588144442</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>368.3064797527871</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1145,7 +1145,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>33.58079695703562</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>14.1441627534537</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>37.11036996896444</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1373,16 +1373,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>195.1848543323539</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1421,22 +1421,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>211.5699346170486</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225714</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>26.7016084775211</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022995</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225818</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791322673</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,13 +2062,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>107.3792913045958</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>3.139541480022574</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>99.28616603324308</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225763</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170459</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>13.51446909089648</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2776,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>231.9225098238354</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317451</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432498</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934451</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3509,16 +3509,16 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561369</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>270.0031426724684</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925456</v>
+        <v>66.57964473925395</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3560,7 +3560,7 @@
         <v>240.3943693174059</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267643</v>
       </c>
       <c r="W38" t="n">
         <v>384.5711897043296</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.537639394324</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934663</v>
+        <v>4.967932742934433</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3718,7 +3718,7 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W40" t="n">
         <v>253.070430030824</v>
@@ -3755,7 +3755,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724688</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
         <v>151.8247133730227</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742935395</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4138,7 +4138,7 @@
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>1673.189122551494</v>
       </c>
       <c r="C2" t="n">
-        <v>805.2168637728128</v>
+        <v>1235.046649734917</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6351895100811</v>
+        <v>1203.177268949766</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>769.4025241080608</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>341.5350945172686</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>341.5350945172686</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048484</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048484</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424403</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424403</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424403</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424403</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1256.08301530159</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.59414731259</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271185</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024242</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2536.595124208079</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2378.873825308176</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2119.651522625192</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2119.651522625192</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2118.836472076629</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1699.69400865594</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1695.448288995997</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1463.178981536726</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1356.722520373368</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1261.632231519921</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1167.511816846875</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>1084.127978463037</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>998.7428887292206</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>957.007236545433</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>983.0709097058906</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1307.629234672103</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1854.563087918902</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>2503.074219929902</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>2503.074219929902</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>2503.074219929902</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>2503.074219929902</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2503.074219929902</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2503.074219929902</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024242</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2556.791560472625</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2426.612916803227</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2250.276369803195</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2051.158851865194</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1865.836097598388</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1710.968661837268</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1584.482882616489</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.8013258914481</v>
+        <v>1131.463100572366</v>
       </c>
       <c r="C4" t="n">
-        <v>458.239614374673</v>
+        <v>958.9013890555913</v>
       </c>
       <c r="D4" t="n">
-        <v>292.3616215761957</v>
+        <v>793.023396257114</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>623.2653925078512</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>446.5583384696073</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>280.967063495435</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>141.0648891858095</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048484</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>138.9846251251747</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>413.7430796963102</v>
       </c>
       <c r="L4" t="n">
-        <v>308.7021231727439</v>
+        <v>831.9529614642713</v>
       </c>
       <c r="M4" t="n">
-        <v>728.7550221176472</v>
+        <v>1291.436828645185</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1733.695631802829</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2153.36488102861</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2500.871774998952</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024242</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2598.829176729614</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2598.829176729614</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2355.075057187111</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>2355.075057187111</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>2068.119549057541</v>
       </c>
       <c r="W4" t="n">
-        <v>822.6199446104351</v>
+        <v>1796.093144643833</v>
       </c>
       <c r="X4" t="n">
-        <v>822.6199446104351</v>
+        <v>1550.701389977245</v>
       </c>
       <c r="Y4" t="n">
-        <v>822.6199446104351</v>
+        <v>1323.281719291354</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1032.922181297967</v>
+        <v>852.5762146508135</v>
       </c>
       <c r="C5" t="n">
-        <v>604.3405070352349</v>
+        <v>818.474145874641</v>
       </c>
       <c r="D5" t="n">
-        <v>175.7588327725032</v>
+        <v>786.6047650894895</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>1074.529126782698</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X5" t="n">
-        <v>1059.427067402413</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y5" t="n">
-        <v>1055.18134774247</v>
+        <v>874.8353810953173</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.603617826933</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C7" t="n">
-        <v>122.603617826933</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>209.2559470001092</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.603617826933</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1711.917842250081</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>1339.891095025044</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>903.981310199488</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>470.2065653577832</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>42.33913576699098</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>42.33913576699098</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>42.33913576699098</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>42.33913576699098</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>477.5938232199089</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1001.540628336422</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1001.540628336422</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>1001.540628336422</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N8" t="n">
-        <v>1001.540628336422</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="O8" t="n">
-        <v>1001.540628336422</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>1423.855918479978</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1947.802723596492</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2116.956788349549</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2116.956788349549</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2116.956788349549</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2116.956788349549</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1754.339838283375</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.524787734813</v>
+        <v>2636.140829505129</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.422728354527</v>
+        <v>2216.99836608444</v>
       </c>
       <c r="Y8" t="n">
-        <v>1734.177008694585</v>
+        <v>2212.752646424497</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>548.5108807582837</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>442.0544195949261</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>346.9641307414793</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>252.843716068433</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>169.4598776845946</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>84.0747879507785</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>42.33913576699098</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>68.40280892744858</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>392.9611338936609</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>916.9079390101742</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.459314034947</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.459314034947</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.459314034947</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.459314034947</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.459314034947</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1588.40611915146</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1705.5788972458</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1642.123459694183</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1511.944816024785</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1335.608269024753</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1136.490751086752</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>951.1679968199462</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>796.3005610588261</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>669.8147818380469</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1121.397296378872</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>948.8355848620973</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>782.95759206362</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>613.1995883143572</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>436.4925342761135</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>270.9012593019411</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>130.9990849923157</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>42.33913576699098</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>42.33913576699098</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>42.33913576699098</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>448.0379748148679</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>907.521841995781</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1349.780645153425</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1769.449894379207</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2116.956788349549</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2116.956788349549</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2095.538967054921</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2095.538967054921</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2095.538967054921</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2095.538967054921</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2058.053744864048</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.027340450339</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1540.635585783751</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1313.21591509786</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1627.492874755259</v>
+        <v>2295.341788780966</v>
       </c>
       <c r="C11" t="n">
-        <v>1189.350401938682</v>
+        <v>1857.199315964389</v>
       </c>
       <c r="D11" t="n">
-        <v>1189.350401938682</v>
+        <v>1421.289531138834</v>
       </c>
       <c r="E11" t="n">
-        <v>1189.350401938682</v>
+        <v>987.5147862971285</v>
       </c>
       <c r="F11" t="n">
-        <v>761.4829723478899</v>
+        <v>559.6473567063363</v>
       </c>
       <c r="G11" t="n">
-        <v>360.0851409711537</v>
+        <v>362.4909381888069</v>
       </c>
       <c r="H11" t="n">
-        <v>70.95498641437003</v>
+        <v>73.36078363202309</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151003</v>
+        <v>72.94399425916309</v>
       </c>
       <c r="J11" t="n">
-        <v>70.53819704151003</v>
+        <v>110.844051253329</v>
       </c>
       <c r="K11" t="n">
-        <v>904.888488999688</v>
+        <v>110.844051253329</v>
       </c>
       <c r="L11" t="n">
-        <v>1777.798677388375</v>
+        <v>1013.525980210472</v>
       </c>
       <c r="M11" t="n">
-        <v>1777.798677388375</v>
+        <v>1013.525980210472</v>
       </c>
       <c r="N11" t="n">
-        <v>2650.708865777061</v>
+        <v>1916.207909167615</v>
       </c>
       <c r="O11" t="n">
-        <v>3523.619054165748</v>
+        <v>2818.889838124759</v>
       </c>
       <c r="P11" t="n">
-        <v>3523.619054165748</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="Q11" t="n">
-        <v>3523.619054165748</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075501</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="S11" t="n">
-        <v>3443.257978259338</v>
+        <v>3563.547839141992</v>
       </c>
       <c r="T11" t="n">
-        <v>3443.257978259338</v>
+        <v>3343.48061201503</v>
       </c>
       <c r="U11" t="n">
-        <v>3443.257978259338</v>
+        <v>3084.258309332047</v>
       </c>
       <c r="V11" t="n">
-        <v>3080.641028193165</v>
+        <v>2721.641359265874</v>
       </c>
       <c r="W11" t="n">
-        <v>2675.785573604198</v>
+        <v>2721.641359265874</v>
       </c>
       <c r="X11" t="n">
-        <v>2462.078568940513</v>
+        <v>2721.641359265874</v>
       </c>
       <c r="Y11" t="n">
-        <v>2053.792445240167</v>
+        <v>2721.641359265874</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328028</v>
+        <v>579.1157392504559</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694451</v>
+        <v>472.6592780870982</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159984</v>
+        <v>377.5689892336515</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429521</v>
+        <v>283.4485745606052</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591137</v>
+        <v>200.0647361767668</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252976</v>
+        <v>114.6796464429506</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151003</v>
+        <v>72.94399425916309</v>
       </c>
       <c r="I12" t="n">
-        <v>96.60187020196763</v>
+        <v>99.00766741962069</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681799</v>
+        <v>423.5659923858331</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1619.010977643632</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1736.183755737972</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1672.728318186355</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1542.549674516957</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1366.213127516925</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1167.095609578924</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944652</v>
+        <v>981.7728553121183</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333452</v>
+        <v>826.9054195509983</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.013843112566</v>
+        <v>700.4196403302191</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>921.0342341184412</v>
+        <v>979.4404433542694</v>
       </c>
       <c r="C13" t="n">
-        <v>748.4725226016661</v>
+        <v>979.4404433542694</v>
       </c>
       <c r="D13" t="n">
-        <v>582.5945298031888</v>
+        <v>813.5624505557921</v>
       </c>
       <c r="E13" t="n">
-        <v>412.8365260539261</v>
+        <v>643.8044468065294</v>
       </c>
       <c r="F13" t="n">
-        <v>236.1294720156824</v>
+        <v>467.0973927682856</v>
       </c>
       <c r="G13" t="n">
-        <v>70.53819704151003</v>
+        <v>301.5061177941133</v>
       </c>
       <c r="H13" t="n">
-        <v>70.53819704151003</v>
+        <v>161.6039434844878</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151003</v>
+        <v>72.94399425916309</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822061999</v>
+        <v>159.5236794238529</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773355</v>
+        <v>434.2821339949885</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452966</v>
+        <v>852.4920157629496</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1311.975882943863</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109635</v>
+        <v>2173.903935327289</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079977</v>
+        <v>2521.410829297631</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.19780694431</v>
+        <v>2668.185782867335</v>
       </c>
       <c r="S13" t="n">
-        <v>2668.958637901625</v>
+        <v>2508.944414165332</v>
       </c>
       <c r="T13" t="n">
-        <v>2423.07919148008</v>
+        <v>2263.064967743787</v>
       </c>
       <c r="U13" t="n">
-        <v>2144.646190733185</v>
+        <v>1984.631966996892</v>
       </c>
       <c r="V13" t="n">
-        <v>1857.690682603616</v>
+        <v>1697.676458867322</v>
       </c>
       <c r="W13" t="n">
-        <v>1585.664278189908</v>
+        <v>1425.650054453614</v>
       </c>
       <c r="X13" t="n">
-        <v>1340.27252352332</v>
+        <v>1398.678732759148</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.852852837428</v>
+        <v>1171.259062073256</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5279,28 +5279,28 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1612.575493976557</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
         <v>5029.390139722817</v>
@@ -5315,13 +5315,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.756877347711</v>
+        <v>790.3368563937638</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309359</v>
+        <v>617.7751448769887</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324586</v>
+        <v>451.8971520785114</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292487</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910049</v>
       </c>
       <c r="G16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.681281130894</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.801834709349</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962454</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771604</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004243</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436406</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.756877347711</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5762,19 +5762,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>451.8971520785109</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292482</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910044</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910044</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5938,22 +5938,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.872751300483</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1700.846346886775</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5975,28 +5975,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903951</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736202</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751428</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258802</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0912842876364</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134641</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883917</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716166</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731393</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238765</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856327</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2683.851649999257</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2437.972203577713</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2159.539202830818</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1872.583694701249</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>910.35904488863</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030288</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666422</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412746</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799784</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832291</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896918</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.64750088558</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.167761876911</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542893</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826199</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825367</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.93996029864</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197253</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>1228.461808239092</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675539</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3503.526522998901</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4331.836397832297</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387605</v>
@@ -7211,13 +7211,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7315,7 +7315,7 @@
         <v>756.1866229080661</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716794</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
         <v>442.5209799463119</v>
@@ -7324,25 +7324,25 @@
         <v>293.3294123850157</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856844</v>
+        <v>925.3347848856841</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
         <v>2294.966764156103</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197257</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7415,34 +7415,34 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>2900.691577634133</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3880.871244204439</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
@@ -7451,7 +7451,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7546,40 +7546,40 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936668</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882657</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758678</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856843</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
@@ -7600,7 +7600,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,10 +7609,10 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="44">
@@ -7625,55 +7625,55 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1228.461808239092</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3503.526522998901</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4331.836397832297</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
@@ -7691,7 +7691,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
         <v>905.6649082936674</v>
@@ -7795,13 +7795,13 @@
         <v>442.5209799463119</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7810,7 +7810,7 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7822,13 +7822,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7837,7 +7837,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7846,7 +7846,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>655.0617495060606</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>121.1234907850383</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060606</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>552.4584376230298</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>655.0617495060606</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>384.4104887602591</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>120.5810333588784</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,13 +8231,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,13 +8453,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>529.2391970873872</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>426.5811011551071</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.2391970873875</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>529.2391970873872</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>149.0417929543157</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.2391970873873</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>409.7968071190676</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>38.28288585269283</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188754</v>
+        <v>911.7999282395386</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>881.7274630188754</v>
+        <v>911.7999282395386</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188754</v>
+        <v>911.7999282395385</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.324038292680598</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8942,13 +8942,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>239.9071053991111</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,16 +10823,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>702.667087990259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>463.0908366609697</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,7 +11078,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,16 +11297,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>702.667087990259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>202.1989987306149</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>203.3811041694338</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>216.2362286424006</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627251</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-8.696932063401164e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>117.766182674437</v>
       </c>
     </row>
     <row r="20">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.6516710866786</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142716</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>144.1344859240868</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>37.38363054573597</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>-9.566747394273988e-13</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-2.122746423083299e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-9.441336601412331e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>828749.5662170175</v>
+        <v>838215.9094418862</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>828749.5662170175</v>
+        <v>838726.7678631514</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>833054.4904107901</v>
+        <v>838726.7678631514</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647803.2568416228</v>
+        <v>662685.695972999</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>844041.8689248686</v>
+        <v>844041.8689248685</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>844041.8689248688</v>
+        <v>844041.8689248685</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857976.472554453</v>
+        <v>844041.8689248686</v>
       </c>
     </row>
     <row r="14">
@@ -26317,10 +26317,10 @@
         <v>134036.8299726021</v>
       </c>
       <c r="D2" t="n">
-        <v>134036.8299726021</v>
+        <v>134036.829972602</v>
       </c>
       <c r="E2" t="n">
-        <v>101090.9741156059</v>
+        <v>103413.4080538701</v>
       </c>
       <c r="F2" t="n">
         <v>131714.396034338</v>
@@ -26332,10 +26332,10 @@
         <v>131714.396034338</v>
       </c>
       <c r="I2" t="n">
-        <v>131714.396034338</v>
+        <v>131714.3960343381</v>
       </c>
       <c r="J2" t="n">
-        <v>131714.396034338</v>
+        <v>131714.3960343381</v>
       </c>
       <c r="K2" t="n">
         <v>131714.396034338</v>
@@ -26344,7 +26344,7 @@
         <v>131714.3960343381</v>
       </c>
       <c r="M2" t="n">
-        <v>134036.8299726022</v>
+        <v>131714.396034338</v>
       </c>
       <c r="N2" t="n">
         <v>134036.8299726021</v>
@@ -26353,7 +26353,7 @@
         <v>134036.8299726021</v>
       </c>
       <c r="P2" t="n">
-        <v>134036.8299726021</v>
+        <v>134036.8299726022</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797195</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928948973</v>
       </c>
       <c r="D3" t="n">
-        <v>32598.54956978507</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>105245.2414652919</v>
+        <v>72938.04361534426</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.0259238713</v>
+        <v>105000.4827540554</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877637</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347375166</v>
       </c>
       <c r="L3" t="n">
-        <v>26560.21475442319</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>100830.0540941885</v>
+        <v>60876.72976950161</v>
       </c>
       <c r="N3" t="n">
-        <v>82750.13805526387</v>
+        <v>88373.14763716029</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>150349.459967294</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="D4" t="n">
-        <v>173984.0524711527</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>41876.27333020713</v>
+        <v>42838.3263645253</v>
       </c>
       <c r="F4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26448,13 +26448,13 @@
         <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>59904.18292625602</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>68372.72551926988</v>
+        <v>68372.72551926992</v>
       </c>
       <c r="O4" t="n">
-        <v>68372.72551926989</v>
+        <v>68372.72551926991</v>
       </c>
       <c r="P4" t="n">
         <v>68372.72551926991</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996847</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>65805.34318291314</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154762</v>
+        <v>55437.43563696395</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-261275.9384754946</v>
+        <v>-309294.2430443799</v>
       </c>
       <c r="C6" t="n">
-        <v>-119084.6378157847</v>
+        <v>-92209.23576389377</v>
       </c>
       <c r="D6" t="n">
-        <v>-138351.1152512488</v>
+        <v>-88185.8888349448</v>
       </c>
       <c r="E6" t="n">
-        <v>-99639.57043144072</v>
+        <v>-68106.63178215074</v>
       </c>
       <c r="F6" t="n">
-        <v>-114182.6936049485</v>
+        <v>-105589.3747745153</v>
       </c>
       <c r="G6" t="n">
-        <v>-565.6676810772042</v>
+        <v>-588.8920204598301</v>
       </c>
       <c r="H6" t="n">
-        <v>-565.6676810772333</v>
+        <v>-588.8920204598593</v>
       </c>
       <c r="I6" t="n">
-        <v>-565.6676810772333</v>
+        <v>-588.8920204598446</v>
       </c>
       <c r="J6" t="n">
-        <v>-111580.1330260674</v>
+        <v>-171981.8684082235</v>
       </c>
       <c r="K6" t="n">
-        <v>-565.6676810772333</v>
+        <v>-3794.013367835073</v>
       </c>
       <c r="L6" t="n">
-        <v>-27125.88243550039</v>
+        <v>-588.8920204598446</v>
       </c>
       <c r="M6" t="n">
-        <v>-105780.565586103</v>
+        <v>-61465.62178996151</v>
       </c>
       <c r="N6" t="n">
-        <v>-92601.64832802131</v>
+        <v>-98224.65790991783</v>
       </c>
       <c r="O6" t="n">
-        <v>-9851.510272757499</v>
+        <v>-9851.51027275747</v>
       </c>
       <c r="P6" t="n">
-        <v>-9851.510272757485</v>
+        <v>-9851.510272757441</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874738</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060604</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>529.2391970873872</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188754</v>
+        <v>911.7999282395386</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060604</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179652</v>
       </c>
       <c r="D4" t="n">
-        <v>104.9433395672829</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>352.4882659314882</v>
+        <v>244.2847216316817</v>
       </c>
       <c r="F4" t="n">
-        <v>396.53304036587</v>
+        <v>366.4605751452065</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060604</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179652</v>
       </c>
       <c r="L4" t="n">
-        <v>104.9433395672829</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314882</v>
+        <v>244.2847216316817</v>
       </c>
       <c r="N4" t="n">
-        <v>337.8563329288477</v>
+        <v>307.7838677081839</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060604</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179652</v>
       </c>
       <c r="L4" t="n">
-        <v>104.9433395672829</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.4882659314882</v>
+        <v>244.2847216316817</v>
       </c>
       <c r="N4" t="n">
-        <v>396.53304036587</v>
+        <v>366.4605751452065</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>392.7119235168435</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>61.72246894478769</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.104073610251476</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>227.8472085809996</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>312.6287401589862</v>
+        <v>13.39309262413559</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>223.1369608195781</v>
       </c>
       <c r="Y7" t="n">
-        <v>139.3596680975884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>65.45456833562378</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27910,13 +27910,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>367.2261030860414</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>246.9755830793094</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874754</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.2357103387468</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874714</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>655.0617495060606</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>121.1234907850383</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060606</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>552.4584376230298</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>655.0617495060606</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>384.4104887602591</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>120.5810333588784</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,13 +34951,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>529.2391970873872</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,10 +35188,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>426.5811011551071</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>529.2391970873875</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>529.2391970873872</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>149.0417929543157</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>529.2391970873873</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>409.7968071190676</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>38.28288585269283</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188754</v>
+        <v>911.7999282395386</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>881.7274630188754</v>
+        <v>911.7999282395386</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188754</v>
+        <v>911.7999282395385</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.324038292680598</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35647,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081364</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>239.9071053991111</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778281</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467888</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033057</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900419</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>702.667087990259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348442</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L40" t="n">
-        <v>438.669934346789</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
         <v>480.360828703306</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,13 +37783,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>463.0908366609697</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37798,7 +37798,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.6899377778283</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>702.667087990259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38181,13 +38181,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
